--- a/CodeSystem-nigeria-allergy-severity.xlsx
+++ b/CodeSystem-nigeria-allergy-severity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-allergy-severity.xlsx
+++ b/CodeSystem-nigeria-allergy-severity.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG Reaction Severity</t>
+    <t>NG-Imm Reaction Severity CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-allergy-severity.xlsx
+++ b/CodeSystem-nigeria-allergy-severity.xlsx
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NigeriaAllergySeverityCS</t>
+    <t>NGAllergySeverityCS</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>NG-Imm Reaction Severity CS</t>
+    <t>NG-Imm Allergy Severity CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-allergy-severity.xlsx
+++ b/CodeSystem-nigeria-allergy-severity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
